--- a/biology/Botanique/Sansevieria_bella/Sansevieria_bella.xlsx
+++ b/biology/Botanique/Sansevieria_bella/Sansevieria_bella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sansevieria bella, également appelée Dracaena bella[1] ainsi que Dracaena kenyensis[2], est une espèce de plantes de la famille des Liliaceae et du genre Sansevieria.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sansevieria bella, également appelée Dracaena bella ainsi que Dracaena kenyensis, est une espèce de plantes de la famille des Liliaceae et du genre Sansevieria.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante succulente, Sansevieria bella est une espèce de sansevières à fines (3,5 cm) et longues (jusqu'à 70 cm) feuilles de couleur verte avec des stries plus claires, présentant un faible sillon central[2].
-Elle a été identifiée comme espèce à part entière en 2000 par Leonard E. Newton[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante succulente, Sansevieria bella est une espèce de sansevières à fines (3,5 cm) et longues (jusqu'à 70 cm) feuilles de couleur verte avec des stries plus claires, présentant un faible sillon central.
+Elle a été identifiée comme espèce à part entière en 2000 par Leonard E. Newton,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est originaire d'Afrique de l'Est, présente dans les montagnes du sud du Kenya à des altitudes comprises entre 1 700 et 2 050 m[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est originaire d'Afrique de l'Est, présente dans les montagnes du sud du Kenya à des altitudes comprises entre 1 700 et 2 050 m.
 </t>
         </is>
       </c>
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
